--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93BABA05-21DD-4A01-88AA-B6856E7F9C4D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B05825E-B0C6-4B65-AF15-E56271706277}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{ACBB02CD-52EA-469D-BE5E-229C1BFBDA0C}"/>
   </bookViews>
@@ -438,16 +438,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.11449001541950592</v>
+        <v>8.8282638320969012E-2</v>
       </c>
       <c r="C2">
-        <v>8.3188138353583005E-2</v>
+        <v>3.8311907981006893E-2</v>
       </c>
       <c r="D2">
-        <v>0.16397941769463817</v>
+        <v>9.3970223480876872E-2</v>
       </c>
       <c r="E2">
-        <v>6.9202663627348669E-3</v>
+        <v>1.4678022931451395E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -455,16 +455,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7.8633526813570997E-2</v>
+        <v>0.12088874331190476</v>
       </c>
       <c r="C3">
-        <v>4.088593904443346E-2</v>
+        <v>5.8151274386827309E-2</v>
       </c>
       <c r="D3">
-        <v>9.2471396712647105E-2</v>
+        <v>0.14755606641409447</v>
       </c>
       <c r="E3">
-        <v>1.6716600115451287E-3</v>
+        <v>3.3815707128120776E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -472,16 +472,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.5091202645339278E-2</v>
+        <v>0.12302868202342902</v>
       </c>
       <c r="C4">
-        <v>5.4805722366876093E-2</v>
+        <v>6.4587969667772888E-2</v>
       </c>
       <c r="D4">
-        <v>6.7455152453940848E-2</v>
+        <v>0.14267040266187153</v>
       </c>
       <c r="E4">
-        <v>3.0036672041551023E-3</v>
+        <v>4.1716058258051501E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -489,16 +489,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.11928351164028092</v>
+        <v>0.10098040207555836</v>
       </c>
       <c r="C5">
-        <v>5.2543876106135715E-2</v>
+        <v>8.2019306094985076E-2</v>
       </c>
       <c r="D5">
-        <v>0.12812698226287697</v>
+        <v>4.8142225063821244E-2</v>
       </c>
       <c r="E5">
-        <v>2.7608589162569398E-3</v>
+        <v>6.727166572302855E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -506,16 +506,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.10575079901451259</v>
+        <v>7.9196325661930828E-2</v>
       </c>
       <c r="C6">
-        <v>6.2699670003575958E-2</v>
+        <v>6.7514929440072521E-2</v>
       </c>
       <c r="D6">
-        <v>0.10765315597685807</v>
+        <v>8.2525926942979222E-2</v>
       </c>
       <c r="E6">
-        <v>3.9312486185573226E-3</v>
+        <v>4.5582656972979717E-3</v>
       </c>
     </row>
   </sheetData>
@@ -524,12 +524,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,15 +753,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C764D9D-E8C2-4ADD-9823-32FFA5ADE4B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEAD560-D183-43D1-B17C-1DC24DBE5D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -789,10 +790,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEAD560-D183-43D1-B17C-1DC24DBE5D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C764D9D-E8C2-4ADD-9823-32FFA5ADE4B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B05825E-B0C6-4B65-AF15-E56271706277}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{280456EB-E298-4639-87D2-E89401FF7D30}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{ACBB02CD-52EA-469D-BE5E-229C1BFBDA0C}"/>
   </bookViews>
@@ -438,16 +438,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8.8282638320969012E-2</v>
+        <v>0.64039999999999997</v>
       </c>
       <c r="C2">
-        <v>3.8311907981006893E-2</v>
+        <v>5.30546887654616E-2</v>
       </c>
       <c r="D2">
-        <v>9.3970223480876872E-2</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="E2">
-        <v>1.4678022931451395E-3</v>
+        <v>2.8147999999999971E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -455,16 +455,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.12088874331190476</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="C3">
-        <v>5.8151274386827309E-2</v>
+        <v>5.1934574225654381E-2</v>
       </c>
       <c r="D3">
-        <v>0.14755606641409447</v>
+        <v>1.024</v>
       </c>
       <c r="E3">
-        <v>3.3815707128120776E-3</v>
+        <v>2.6972000000000046E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -472,16 +472,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.12302868202342902</v>
+        <v>0.68119999999999992</v>
       </c>
       <c r="C4">
-        <v>6.4587969667772888E-2</v>
+        <v>7.0705021038113033E-2</v>
       </c>
       <c r="D4">
-        <v>0.14267040266187153</v>
+        <v>0.65199999999999991</v>
       </c>
       <c r="E4">
-        <v>4.1716058258051501E-3</v>
+        <v>4.9992000000000066E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -489,16 +489,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.10098040207555836</v>
+        <v>0.48719999999999997</v>
       </c>
       <c r="C5">
-        <v>8.2019306094985076E-2</v>
+        <v>0.10220176123727027</v>
       </c>
       <c r="D5">
-        <v>4.8142225063821244E-2</v>
+        <v>0.45199999999999996</v>
       </c>
       <c r="E5">
-        <v>6.727166572302855E-3</v>
+        <v>1.04452E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -506,16 +506,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>7.9196325661930828E-2</v>
+        <v>0.754</v>
       </c>
       <c r="C6">
-        <v>6.7514929440072521E-2</v>
+        <v>2.6267851073127419E-2</v>
       </c>
       <c r="D6">
-        <v>8.2525926942979222E-2</v>
+        <v>0.746</v>
       </c>
       <c r="E6">
-        <v>4.5582656972979717E-3</v>
+        <v>6.9000000000000127E-4</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{280456EB-E298-4639-87D2-E89401FF7D30}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FE3AF45-5217-4A8C-9CC0-C5E9CFEA46A5}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{ACBB02CD-52EA-469D-BE5E-229C1BFBDA0C}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Sample Mean</t>
-  </si>
-  <si>
     <t>Sample Standard Deviation</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Test 5</t>
+  </si>
+  <si>
+    <t>Sample Mean [ch/s]</t>
   </si>
 </sst>
 </file>
@@ -421,101 +421,101 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.64039999999999997</v>
+        <v>1.5699187053859567</v>
       </c>
       <c r="C2">
-        <v>5.30546887654616E-2</v>
+        <v>0.12701746190826682</v>
       </c>
       <c r="D2">
-        <v>0.64400000000000002</v>
+        <v>1.5527950310559007</v>
       </c>
       <c r="E2">
-        <v>2.8147999999999971E-3</v>
+        <v>1.6133435629618015E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1.0192000000000001</v>
+        <v>0.98329544677442127</v>
       </c>
       <c r="C3">
-        <v>5.1934574225654381E-2</v>
+        <v>5.2385484754417379E-2</v>
       </c>
       <c r="D3">
-        <v>1.024</v>
+        <v>0.9765625</v>
       </c>
       <c r="E3">
-        <v>2.6972000000000046E-3</v>
+        <v>2.7442390129552956E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.68119999999999992</v>
+        <v>1.4792964058113547</v>
       </c>
       <c r="C4">
-        <v>7.0705021038113033E-2</v>
+        <v>0.13617922598932311</v>
       </c>
       <c r="D4">
-        <v>0.65199999999999991</v>
+        <v>1.5337423312883438</v>
       </c>
       <c r="E4">
-        <v>4.9992000000000066E-3</v>
+        <v>1.8544781591051131E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.48719999999999997</v>
+        <v>2.1253252699558072</v>
       </c>
       <c r="C5">
-        <v>0.10220176123727027</v>
+        <v>0.43809868806766955</v>
       </c>
       <c r="D5">
-        <v>0.45199999999999996</v>
+        <v>2.2123893805309738</v>
       </c>
       <c r="E5">
-        <v>1.04452E-2</v>
+        <v>0.19193046048661325</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.754</v>
+        <v>1.3275465448215726</v>
       </c>
       <c r="C6">
-        <v>2.6267851073127419E-2</v>
+        <v>4.6174300411370633E-2</v>
       </c>
       <c r="D6">
-        <v>0.746</v>
+        <v>1.3404825737265416</v>
       </c>
       <c r="E6">
-        <v>6.9000000000000127E-4</v>
+        <v>2.132066018479502E-3</v>
       </c>
     </row>
   </sheetData>
@@ -524,9 +524,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,19 +756,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEAD560-D183-43D1-B17C-1DC24DBE5D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C764D9D-E8C2-4ADD-9823-32FFA5ADE4B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -790,9 +789,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C764D9D-E8C2-4ADD-9823-32FFA5ADE4B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEAD560-D183-43D1-B17C-1DC24DBE5D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\OneDrive - Clemson University\Documents\GitHub\PLC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FE3AF45-5217-4A8C-9CC0-C5E9CFEA46A5}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{7695484A-1448-462F-88BA-3322233815AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{221180FE-69B1-4E2A-87BE-D855F9F40FDA}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{ACBB02CD-52EA-469D-BE5E-229C1BFBDA0C}"/>
+    <workbookView xWindow="2052" yWindow="1896" windowWidth="17280" windowHeight="9420" xr2:uid="{ACBB02CD-52EA-469D-BE5E-229C1BFBDA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,6 +524,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -532,7 +538,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E31C581AABD3D438D1210A0B9E9BAAA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a880cdde40dd4aeca72a964086578e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c349c498-aafa-4611-9c89-399ce2bd3502" xmlns:ns4="dabdaea4-a51c-41c0-88c7-2dcca5159689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8273ed8f1d147cc376b7c2884efaf481" ns3:_="" ns4:_="">
     <xsd:import namespace="c349c498-aafa-4611-9c89-399ce2bd3502"/>
@@ -755,13 +761,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEAD560-D183-43D1-B17C-1DC24DBE5D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C764D9D-E8C2-4ADD-9823-32FFA5ADE4B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -769,7 +778,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C6A114-48A0-4395-9C9F-D35EE9AD3AD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -786,13 +795,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEAD560-D183-43D1-B17C-1DC24DBE5D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>